--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3402,28 +3402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>572.0965787500094</v>
+        <v>644.9127168360545</v>
       </c>
       <c r="AB2" t="n">
-        <v>782.7677781655304</v>
+        <v>882.3980307161485</v>
       </c>
       <c r="AC2" t="n">
-        <v>708.0615200388881</v>
+        <v>798.1832011180129</v>
       </c>
       <c r="AD2" t="n">
-        <v>572096.5787500094</v>
+        <v>644912.7168360546</v>
       </c>
       <c r="AE2" t="n">
-        <v>782767.7781655304</v>
+        <v>882398.0307161484</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.425349210498699e-06</v>
+        <v>2.409623560761092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.21682098765432</v>
       </c>
       <c r="AH2" t="n">
-        <v>708061.5200388881</v>
+        <v>798183.2011180129</v>
       </c>
     </row>
     <row r="3">
@@ -3508,28 +3508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.5884740324354</v>
+        <v>408.575643709319</v>
       </c>
       <c r="AB3" t="n">
-        <v>487.9000817443747</v>
+        <v>559.031220808345</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.3355827147563</v>
+        <v>505.6780656996419</v>
       </c>
       <c r="AD3" t="n">
-        <v>356588.4740324354</v>
+        <v>408575.6437093189</v>
       </c>
       <c r="AE3" t="n">
-        <v>487900.0817443747</v>
+        <v>559031.220808345</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.976004570560558e-06</v>
+        <v>3.340533768372737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.25462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>441335.5827147563</v>
+        <v>505678.0656996419</v>
       </c>
     </row>
     <row r="4">
@@ -3614,28 +3614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>307.0560197542979</v>
+        <v>358.9578485766099</v>
       </c>
       <c r="AB4" t="n">
-        <v>420.1275925833692</v>
+        <v>491.1419645251418</v>
       </c>
       <c r="AC4" t="n">
-        <v>380.0312047999912</v>
+        <v>444.2680647529381</v>
       </c>
       <c r="AD4" t="n">
-        <v>307056.0197542979</v>
+        <v>358957.8485766099</v>
       </c>
       <c r="AE4" t="n">
-        <v>420127.5925833692</v>
+        <v>491141.9645251418</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.191277467164617e-06</v>
+        <v>3.704463281105225e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.247685185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>380031.2047999912</v>
+        <v>444268.0647529381</v>
       </c>
     </row>
     <row r="5">
@@ -3720,28 +3720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>278.9203521316455</v>
+        <v>330.907432299978</v>
       </c>
       <c r="AB5" t="n">
-        <v>381.6311308840043</v>
+        <v>452.7621474784262</v>
       </c>
       <c r="AC5" t="n">
-        <v>345.2087913750904</v>
+        <v>409.5511635787495</v>
       </c>
       <c r="AD5" t="n">
-        <v>278920.3521316455</v>
+        <v>330907.432299978</v>
       </c>
       <c r="AE5" t="n">
-        <v>381631.1308840043</v>
+        <v>452762.1474784262</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.302196315085519e-06</v>
+        <v>3.89197709688737e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.800154320987653</v>
       </c>
       <c r="AH5" t="n">
-        <v>345208.7913750904</v>
+        <v>409551.1635787495</v>
       </c>
     </row>
     <row r="6">
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>267.4677405192714</v>
+        <v>309.2110181921665</v>
       </c>
       <c r="AB6" t="n">
-        <v>365.9611624223888</v>
+        <v>423.0761565178822</v>
       </c>
       <c r="AC6" t="n">
-        <v>331.0343427105126</v>
+        <v>382.6983619309298</v>
       </c>
       <c r="AD6" t="n">
-        <v>267467.7405192715</v>
+        <v>309211.0181921665</v>
       </c>
       <c r="AE6" t="n">
-        <v>365961.1624223889</v>
+        <v>423076.1565178822</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.373358738822649e-06</v>
+        <v>4.012280705024116e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.537808641975309</v>
       </c>
       <c r="AH6" t="n">
-        <v>331034.3427105126</v>
+        <v>382698.3619309298</v>
       </c>
     </row>
     <row r="7">
@@ -3932,28 +3932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>257.9572268693447</v>
+        <v>299.5299123416507</v>
       </c>
       <c r="AB7" t="n">
-        <v>352.948458072142</v>
+        <v>409.8300403929596</v>
       </c>
       <c r="AC7" t="n">
-        <v>319.2635526001143</v>
+        <v>370.716436537929</v>
       </c>
       <c r="AD7" t="n">
-        <v>257957.2268693447</v>
+        <v>299529.9123416507</v>
       </c>
       <c r="AE7" t="n">
-        <v>352948.458072142</v>
+        <v>409830.0403929596</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.425667059148983e-06</v>
+        <v>4.100710515875923e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.352623456790123</v>
       </c>
       <c r="AH7" t="n">
-        <v>319263.5526001143</v>
+        <v>370716.4365379291</v>
       </c>
     </row>
     <row r="8">
@@ -4038,28 +4038,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>252.3751868428816</v>
+        <v>293.9478723151875</v>
       </c>
       <c r="AB8" t="n">
-        <v>345.3108646457134</v>
+        <v>402.1924469665271</v>
       </c>
       <c r="AC8" t="n">
-        <v>312.3548803708719</v>
+        <v>363.8077643086856</v>
       </c>
       <c r="AD8" t="n">
-        <v>252375.1868428816</v>
+        <v>293947.8723151875</v>
       </c>
       <c r="AE8" t="n">
-        <v>345310.8646457134</v>
+        <v>402192.4469665271</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.453764399886522e-06</v>
+        <v>4.14821046447604e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.256172839506172</v>
       </c>
       <c r="AH8" t="n">
-        <v>312354.8803708719</v>
+        <v>363807.7643086856</v>
       </c>
     </row>
     <row r="9">
@@ -4144,28 +4144,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>246.7691794993734</v>
+        <v>288.3418649716792</v>
       </c>
       <c r="AB9" t="n">
-        <v>337.6404780787402</v>
+        <v>394.52206039955</v>
       </c>
       <c r="AC9" t="n">
-        <v>305.416544732393</v>
+        <v>356.8694286702056</v>
       </c>
       <c r="AD9" t="n">
-        <v>246769.1794993734</v>
+        <v>288341.8649716792</v>
       </c>
       <c r="AE9" t="n">
-        <v>337640.4780787402</v>
+        <v>394522.06039955</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.476925011597279e-06</v>
+        <v>4.187364627714643e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.179012345679013</v>
       </c>
       <c r="AH9" t="n">
-        <v>305416.544732393</v>
+        <v>356869.4286702056</v>
       </c>
     </row>
     <row r="10">
@@ -4250,28 +4250,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>240.8658904850078</v>
+        <v>282.4385759573134</v>
       </c>
       <c r="AB10" t="n">
-        <v>329.5633376145585</v>
+        <v>386.4449199353641</v>
       </c>
       <c r="AC10" t="n">
-        <v>298.1102752177724</v>
+        <v>349.5631591555837</v>
       </c>
       <c r="AD10" t="n">
-        <v>240865.8904850078</v>
+        <v>282438.5759573135</v>
       </c>
       <c r="AE10" t="n">
-        <v>329563.3376145585</v>
+        <v>386444.919935364</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.502186359064113e-06</v>
+        <v>4.230070188979421e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.097993827160494</v>
       </c>
       <c r="AH10" t="n">
-        <v>298110.2752177723</v>
+        <v>349563.1591555837</v>
       </c>
     </row>
     <row r="11">
@@ -4356,28 +4356,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>235.9025366249589</v>
+        <v>277.4752220972645</v>
       </c>
       <c r="AB11" t="n">
-        <v>322.7722578955246</v>
+        <v>379.6538402163268</v>
       </c>
       <c r="AC11" t="n">
-        <v>291.9673266157807</v>
+        <v>343.4202105535911</v>
       </c>
       <c r="AD11" t="n">
-        <v>235902.5366249589</v>
+        <v>277475.2220972645</v>
       </c>
       <c r="AE11" t="n">
-        <v>322772.2578955246</v>
+        <v>379653.8402163268</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.518046914022499e-06</v>
+        <v>4.256883244077057e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.04783950617284</v>
       </c>
       <c r="AH11" t="n">
-        <v>291967.3266157807</v>
+        <v>343420.2105535911</v>
       </c>
     </row>
     <row r="12">
@@ -4462,28 +4462,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>235.6487720086201</v>
+        <v>277.2214574809257</v>
       </c>
       <c r="AB12" t="n">
-        <v>322.4250459521452</v>
+        <v>379.3066282729471</v>
       </c>
       <c r="AC12" t="n">
-        <v>291.6532520929624</v>
+        <v>343.1061360307727</v>
       </c>
       <c r="AD12" t="n">
-        <v>235648.7720086201</v>
+        <v>277221.4574809257</v>
       </c>
       <c r="AE12" t="n">
-        <v>322425.0459521452</v>
+        <v>379306.6282729472</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.518256987598107e-06</v>
+        <v>4.257238383879674e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.04783950617284</v>
       </c>
       <c r="AH12" t="n">
-        <v>291653.2520929624</v>
+        <v>343106.1360307727</v>
       </c>
     </row>
   </sheetData>
@@ -4759,28 +4759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.1715829202253</v>
+        <v>496.6297386373655</v>
       </c>
       <c r="AB2" t="n">
-        <v>596.7892022836219</v>
+        <v>679.5107181613998</v>
       </c>
       <c r="AC2" t="n">
-        <v>539.8324784165783</v>
+        <v>614.659168919358</v>
       </c>
       <c r="AD2" t="n">
-        <v>436171.5829202253</v>
+        <v>496629.7386373655</v>
       </c>
       <c r="AE2" t="n">
-        <v>596789.2022836219</v>
+        <v>679510.7181613998</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.683020605230634e-06</v>
+        <v>2.914639949547167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.4537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>539832.4784165783</v>
+        <v>614659.1689193579</v>
       </c>
     </row>
     <row r="3">
@@ -4865,28 +4865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.0306755690505</v>
+        <v>345.4835147883512</v>
       </c>
       <c r="AB3" t="n">
-        <v>403.6739861483705</v>
+        <v>472.7057865903933</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.1479074703672</v>
+        <v>427.5914097649438</v>
       </c>
       <c r="AD3" t="n">
-        <v>295030.6755690505</v>
+        <v>345483.5147883511</v>
       </c>
       <c r="AE3" t="n">
-        <v>403673.9861483705</v>
+        <v>472705.7865903933</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.191816782129881e-06</v>
+        <v>3.795768593343062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.564043209876543</v>
       </c>
       <c r="AH3" t="n">
-        <v>365147.9074703672</v>
+        <v>427591.4097649438</v>
       </c>
     </row>
     <row r="4">
@@ -4971,28 +4971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>257.0928301407985</v>
+        <v>307.4603285055307</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.7657523336533</v>
+        <v>420.6807856536491</v>
       </c>
       <c r="AC4" t="n">
-        <v>318.1937226373686</v>
+        <v>380.531601900055</v>
       </c>
       <c r="AD4" t="n">
-        <v>257092.8301407985</v>
+        <v>307460.3285055307</v>
       </c>
       <c r="AE4" t="n">
-        <v>351765.7523336533</v>
+        <v>420680.7856536491</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.380503287455144e-06</v>
+        <v>4.122534186498762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.804012345679013</v>
       </c>
       <c r="AH4" t="n">
-        <v>318193.7226373686</v>
+        <v>380531.601900055</v>
       </c>
     </row>
     <row r="5">
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>242.8282323446248</v>
+        <v>283.1052523740478</v>
       </c>
       <c r="AB5" t="n">
-        <v>332.248300319298</v>
+        <v>387.3570960204277</v>
       </c>
       <c r="AC5" t="n">
-        <v>300.5389888503413</v>
+        <v>350.388278435336</v>
       </c>
       <c r="AD5" t="n">
-        <v>242828.2323446248</v>
+        <v>283105.2523740478</v>
       </c>
       <c r="AE5" t="n">
-        <v>332248.3003192981</v>
+        <v>387357.0960204276</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.480415318348653e-06</v>
+        <v>4.295560943139515e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.449074074074073</v>
       </c>
       <c r="AH5" t="n">
-        <v>300538.9888503413</v>
+        <v>350388.278435336</v>
       </c>
     </row>
     <row r="6">
@@ -5183,28 +5183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>232.3212156220362</v>
+        <v>272.5982356514589</v>
       </c>
       <c r="AB6" t="n">
-        <v>317.8721365025964</v>
+        <v>372.9809322037187</v>
       </c>
       <c r="AC6" t="n">
-        <v>287.5348659312285</v>
+        <v>337.3841555162211</v>
       </c>
       <c r="AD6" t="n">
-        <v>232321.2156220362</v>
+        <v>272598.235651459</v>
       </c>
       <c r="AE6" t="n">
-        <v>317872.1365025964</v>
+        <v>372980.9322037187</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.548381577537223e-06</v>
+        <v>4.413264299614546e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.22530864197531</v>
       </c>
       <c r="AH6" t="n">
-        <v>287534.8659312284</v>
+        <v>337384.1555162211</v>
       </c>
     </row>
     <row r="7">
@@ -5289,28 +5289,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>225.2378210245612</v>
+        <v>265.514841053984</v>
       </c>
       <c r="AB7" t="n">
-        <v>308.1803235170213</v>
+        <v>363.2891192181386</v>
       </c>
       <c r="AC7" t="n">
-        <v>278.7680259744487</v>
+        <v>328.6173155594398</v>
       </c>
       <c r="AD7" t="n">
-        <v>225237.8210245612</v>
+        <v>265514.841053984</v>
       </c>
       <c r="AE7" t="n">
-        <v>308180.3235170214</v>
+        <v>363289.1192181386</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.579458076542708e-06</v>
+        <v>4.467082301136302e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH7" t="n">
-        <v>278768.0259744487</v>
+        <v>328617.3155594398</v>
       </c>
     </row>
     <row r="8">
@@ -5395,28 +5395,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>218.3876345506671</v>
+        <v>258.6646545800897</v>
       </c>
       <c r="AB8" t="n">
-        <v>298.8075961745458</v>
+        <v>353.9163918756582</v>
       </c>
       <c r="AC8" t="n">
-        <v>270.2898185748305</v>
+        <v>320.1391081598203</v>
       </c>
       <c r="AD8" t="n">
-        <v>218387.6345506671</v>
+        <v>258664.6545800898</v>
       </c>
       <c r="AE8" t="n">
-        <v>298807.5961745458</v>
+        <v>353916.3918756582</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.609176336955297e-06</v>
+        <v>4.518548117276864e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.032407407407408</v>
       </c>
       <c r="AH8" t="n">
-        <v>270289.8185748305</v>
+        <v>320139.1081598203</v>
       </c>
     </row>
     <row r="9">
@@ -5501,28 +5501,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>217.5887070091653</v>
+        <v>257.8657270385847</v>
       </c>
       <c r="AB9" t="n">
-        <v>297.7144682660679</v>
+        <v>352.8232639670086</v>
       </c>
       <c r="AC9" t="n">
-        <v>269.3010172597228</v>
+        <v>319.1503068446637</v>
       </c>
       <c r="AD9" t="n">
-        <v>217588.7070091653</v>
+        <v>257865.7270385847</v>
       </c>
       <c r="AE9" t="n">
-        <v>297714.4682660679</v>
+        <v>352823.2639670086</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.616239177638362e-06</v>
+        <v>4.530779481259081e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.013117283950617</v>
       </c>
       <c r="AH9" t="n">
-        <v>269301.0172597228</v>
+        <v>319150.3068446637</v>
       </c>
     </row>
   </sheetData>
@@ -5798,28 +5798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.3576841055625</v>
+        <v>264.7639199685499</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.134860771119</v>
+        <v>362.2616758607475</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.4904109011347</v>
+        <v>327.6879299540523</v>
       </c>
       <c r="AD2" t="n">
-        <v>219357.6841055625</v>
+        <v>264763.9199685499</v>
       </c>
       <c r="AE2" t="n">
-        <v>300134.860771119</v>
+        <v>362261.6758607475</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.50158280167759e-06</v>
+        <v>4.733532975675514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.347993827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>271490.4109011347</v>
+        <v>327687.9299540523</v>
       </c>
     </row>
     <row r="3">
@@ -5904,28 +5904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.1152952428548</v>
+        <v>211.4915063476951</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.6004724927497</v>
+        <v>289.3720093315399</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.7333396794862</v>
+        <v>261.7547508971888</v>
       </c>
       <c r="AD3" t="n">
-        <v>175115.2952428548</v>
+        <v>211491.5063476951</v>
       </c>
       <c r="AE3" t="n">
-        <v>239600.4724927497</v>
+        <v>289372.0093315399</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.859202929321447e-06</v>
+        <v>5.410227213352664e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.179012345679013</v>
       </c>
       <c r="AH3" t="n">
-        <v>216733.3396794862</v>
+        <v>261754.7508971888</v>
       </c>
     </row>
     <row r="4">
@@ -6010,28 +6010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.5200161936549</v>
+        <v>209.8962272984952</v>
       </c>
       <c r="AB4" t="n">
-        <v>237.4177413188909</v>
+        <v>287.189278157681</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.7589253053774</v>
+        <v>259.7803365230799</v>
       </c>
       <c r="AD4" t="n">
-        <v>173520.0161936549</v>
+        <v>209896.2272984952</v>
       </c>
       <c r="AE4" t="n">
-        <v>237417.7413188909</v>
+        <v>287189.2781576811</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.877632581602127e-06</v>
+        <v>5.445100081339414e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.128858024691359</v>
       </c>
       <c r="AH4" t="n">
-        <v>214758.9253053774</v>
+        <v>259780.33652308</v>
       </c>
     </row>
   </sheetData>
@@ -6307,28 +6307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.1250817007639</v>
+        <v>331.5229842496055</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.7524714969351</v>
+        <v>453.604372812142</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.6504812347874</v>
+        <v>410.3130081086861</v>
       </c>
       <c r="AD2" t="n">
-        <v>284125.0817007639</v>
+        <v>331522.9842496056</v>
       </c>
       <c r="AE2" t="n">
-        <v>388752.4714969351</v>
+        <v>453604.372812142</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.178248301616743e-06</v>
+        <v>3.968295344949856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.27391975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>351650.4812347874</v>
+        <v>410313.0081086861</v>
       </c>
     </row>
     <row r="3">
@@ -6413,28 +6413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.5239030001418</v>
+        <v>260.9217160404351</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.1528240944282</v>
+        <v>357.0046029402267</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.2701686020059</v>
+        <v>322.9325846947179</v>
       </c>
       <c r="AD3" t="n">
-        <v>213523.9030001418</v>
+        <v>260921.7160404351</v>
       </c>
       <c r="AE3" t="n">
-        <v>292152.8240944282</v>
+        <v>357004.6029402267</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.591940328227111e-06</v>
+        <v>4.721952373959049e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.63425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>264270.1686020059</v>
+        <v>322932.584694718</v>
       </c>
     </row>
     <row r="4">
@@ -6519,28 +6519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.1055388379254</v>
+        <v>233.0068106077941</v>
       </c>
       <c r="AB4" t="n">
-        <v>266.9520056868171</v>
+        <v>318.8101978084261</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.4744809336385</v>
+        <v>288.3833999826074</v>
       </c>
       <c r="AD4" t="n">
-        <v>195105.5388379254</v>
+        <v>233006.8106077941</v>
       </c>
       <c r="AE4" t="n">
-        <v>266952.0056868171</v>
+        <v>318810.1978084261</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.743718266491424e-06</v>
+        <v>4.998458815136264e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.155864197530866</v>
       </c>
       <c r="AH4" t="n">
-        <v>241474.4809336385</v>
+        <v>288383.3999826075</v>
       </c>
     </row>
     <row r="5">
@@ -6625,28 +6625,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>188.7734572211229</v>
+        <v>226.6747289909917</v>
       </c>
       <c r="AB5" t="n">
-        <v>258.288172266987</v>
+        <v>310.1463643885961</v>
       </c>
       <c r="AC5" t="n">
-        <v>233.6375116156277</v>
+        <v>280.5464306645966</v>
       </c>
       <c r="AD5" t="n">
-        <v>188773.4572211229</v>
+        <v>226674.7289909917</v>
       </c>
       <c r="AE5" t="n">
-        <v>258288.172266987</v>
+        <v>310146.364388596</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.791043752782473e-06</v>
+        <v>5.08467557325648e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.016975308641976</v>
       </c>
       <c r="AH5" t="n">
-        <v>233637.5116156277</v>
+        <v>280546.4306645966</v>
       </c>
     </row>
   </sheetData>
@@ -6922,28 +6922,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.8595318997702</v>
+        <v>215.7874408805346</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.1457934526021</v>
+        <v>295.2498964826234</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.7038089547476</v>
+        <v>267.0716607482413</v>
       </c>
       <c r="AD2" t="n">
-        <v>171859.5318997702</v>
+        <v>215787.4408805346</v>
       </c>
       <c r="AE2" t="n">
-        <v>235145.7934526021</v>
+        <v>295249.8964826234</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.795367231753561e-06</v>
+        <v>5.478019105607601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.688271604938272</v>
       </c>
       <c r="AH2" t="n">
-        <v>212703.8089547476</v>
+        <v>267071.6607482413</v>
       </c>
     </row>
     <row r="3">
@@ -7028,28 +7028,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.5868946646438</v>
+        <v>196.712243186892</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.0903179907394</v>
+        <v>269.1503694598653</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.9897683439768</v>
+        <v>243.4630359536106</v>
       </c>
       <c r="AD3" t="n">
-        <v>161586.8946646437</v>
+        <v>196712.243186892</v>
       </c>
       <c r="AE3" t="n">
-        <v>221090.3179907394</v>
+        <v>269150.3694598653</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.923056146454919e-06</v>
+        <v>5.72824823699423e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.310185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>199989.7683439768</v>
+        <v>243463.0359536106</v>
       </c>
     </row>
   </sheetData>
@@ -7325,28 +7325,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>461.8318595854154</v>
+        <v>532.9764641609563</v>
       </c>
       <c r="AB2" t="n">
-        <v>631.8987248684452</v>
+        <v>729.2419115271374</v>
       </c>
       <c r="AC2" t="n">
-        <v>571.5911974424305</v>
+        <v>659.6440869884376</v>
       </c>
       <c r="AD2" t="n">
-        <v>461831.8595854155</v>
+        <v>532976.4641609563</v>
       </c>
       <c r="AE2" t="n">
-        <v>631898.7248684452</v>
+        <v>729241.9115271374</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.615945099253361e-06</v>
+        <v>2.780203175276667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.85493827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>571591.1974424305</v>
+        <v>659644.0869884376</v>
       </c>
     </row>
     <row r="3">
@@ -7431,28 +7431,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.4617437842099</v>
+        <v>358.3402762342903</v>
       </c>
       <c r="AB3" t="n">
-        <v>420.6827221003757</v>
+        <v>490.2969748010113</v>
       </c>
       <c r="AC3" t="n">
-        <v>380.5333535350238</v>
+        <v>443.5037196621281</v>
       </c>
       <c r="AD3" t="n">
-        <v>307461.7437842099</v>
+        <v>358340.2762342903</v>
       </c>
       <c r="AE3" t="n">
-        <v>420682.7221003757</v>
+        <v>490296.9748010113</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.133900380458749e-06</v>
+        <v>3.671335502806789e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.733796296296298</v>
       </c>
       <c r="AH3" t="n">
-        <v>380533.3535350238</v>
+        <v>443503.7196621281</v>
       </c>
     </row>
     <row r="4">
@@ -7537,28 +7537,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>266.6648658808174</v>
+        <v>317.4580574763262</v>
       </c>
       <c r="AB4" t="n">
-        <v>364.8626339217268</v>
+        <v>434.3601195001648</v>
       </c>
       <c r="AC4" t="n">
-        <v>330.0406562281593</v>
+        <v>392.9053993233248</v>
       </c>
       <c r="AD4" t="n">
-        <v>266664.8658808174</v>
+        <v>317458.0574763262</v>
       </c>
       <c r="AE4" t="n">
-        <v>364862.6339217268</v>
+        <v>434360.1195001648</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.333490840690389e-06</v>
+        <v>4.014727138789549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.900462962962964</v>
       </c>
       <c r="AH4" t="n">
-        <v>330040.6562281593</v>
+        <v>392905.3993233248</v>
       </c>
     </row>
     <row r="5">
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>252.0081762519012</v>
+        <v>292.7963430665403</v>
       </c>
       <c r="AB5" t="n">
-        <v>344.8087045637696</v>
+        <v>400.6168738466429</v>
       </c>
       <c r="AC5" t="n">
-        <v>311.9006457423625</v>
+        <v>362.3825616760324</v>
       </c>
       <c r="AD5" t="n">
-        <v>252008.1762519012</v>
+        <v>292796.3430665403</v>
       </c>
       <c r="AE5" t="n">
-        <v>344808.7045637696</v>
+        <v>400616.8738466429</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.430943965324667e-06</v>
+        <v>4.182393408314447e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.545524691358024</v>
       </c>
       <c r="AH5" t="n">
-        <v>311900.6457423625</v>
+        <v>362382.5616760324</v>
       </c>
     </row>
     <row r="6">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>241.8235668131774</v>
+        <v>282.4411414272241</v>
       </c>
       <c r="AB6" t="n">
-        <v>330.8736726164572</v>
+        <v>386.4484301244764</v>
       </c>
       <c r="AC6" t="n">
-        <v>299.2955536861571</v>
+        <v>349.5663343371737</v>
       </c>
       <c r="AD6" t="n">
-        <v>241823.5668131774</v>
+        <v>282441.1414272241</v>
       </c>
       <c r="AE6" t="n">
-        <v>330873.6726164572</v>
+        <v>386448.4301244764</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.497653590419623e-06</v>
+        <v>4.297166064635635e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.317901234567902</v>
       </c>
       <c r="AH6" t="n">
-        <v>299295.553686157</v>
+        <v>349566.3343371737</v>
       </c>
     </row>
     <row r="7">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>234.1680508588814</v>
+        <v>274.7856254729281</v>
       </c>
       <c r="AB7" t="n">
-        <v>320.3990579502671</v>
+        <v>375.973815458281</v>
       </c>
       <c r="AC7" t="n">
-        <v>289.8206215424909</v>
+        <v>340.091402193506</v>
       </c>
       <c r="AD7" t="n">
-        <v>234168.0508588814</v>
+        <v>274785.6254729281</v>
       </c>
       <c r="AE7" t="n">
-        <v>320399.0579502672</v>
+        <v>375973.815458281</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.538088560917051e-06</v>
+        <v>4.366733671493757e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.182870370370372</v>
       </c>
       <c r="AH7" t="n">
-        <v>289820.6215424908</v>
+        <v>340091.402193506</v>
       </c>
     </row>
     <row r="8">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>226.4618976166553</v>
+        <v>267.0794722307019</v>
       </c>
       <c r="AB8" t="n">
-        <v>309.8551591127716</v>
+        <v>365.4299166207799</v>
       </c>
       <c r="AC8" t="n">
-        <v>280.2830176115875</v>
+        <v>330.5537982626012</v>
       </c>
       <c r="AD8" t="n">
-        <v>226461.8976166553</v>
+        <v>267079.4722307019</v>
       </c>
       <c r="AE8" t="n">
-        <v>309855.1591127716</v>
+        <v>365429.9166207799</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.56899358497234e-06</v>
+        <v>4.419905184591708e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.086419753086421</v>
       </c>
       <c r="AH8" t="n">
-        <v>280283.0176115875</v>
+        <v>330553.7982626011</v>
       </c>
     </row>
     <row r="9">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>221.7020450069546</v>
+        <v>262.3196196210011</v>
       </c>
       <c r="AB9" t="n">
-        <v>303.3425187823055</v>
+        <v>358.9172762903106</v>
       </c>
       <c r="AC9" t="n">
-        <v>274.391934533711</v>
+        <v>324.6627151847236</v>
       </c>
       <c r="AD9" t="n">
-        <v>221702.0450069546</v>
+        <v>262319.6196210011</v>
       </c>
       <c r="AE9" t="n">
-        <v>303342.5187823055</v>
+        <v>358917.2762903105</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.59219927376647e-06</v>
+        <v>4.45983013606421e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.013117283950617</v>
       </c>
       <c r="AH9" t="n">
-        <v>274391.934533711</v>
+        <v>324662.7151847236</v>
       </c>
     </row>
     <row r="10">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>222.5097915628952</v>
+        <v>263.1273661769417</v>
       </c>
       <c r="AB10" t="n">
-        <v>304.4477132554059</v>
+        <v>360.0224707634115</v>
       </c>
       <c r="AC10" t="n">
-        <v>275.3916507974492</v>
+        <v>325.662431448462</v>
       </c>
       <c r="AD10" t="n">
-        <v>222509.7915628952</v>
+        <v>263127.3661769417</v>
       </c>
       <c r="AE10" t="n">
-        <v>304447.7132554059</v>
+        <v>360022.4707634115</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.591176285165336e-06</v>
+        <v>4.458070103400689e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.016975308641976</v>
       </c>
       <c r="AH10" t="n">
-        <v>275391.6507974492</v>
+        <v>325662.431448462</v>
       </c>
     </row>
   </sheetData>
@@ -8470,28 +8470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.238924848901</v>
+        <v>188.6235754345651</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.0365015192957</v>
+        <v>258.083097394301</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.8954740059445</v>
+        <v>233.4520088009663</v>
       </c>
       <c r="AD2" t="n">
-        <v>154238.924848901</v>
+        <v>188623.5754345651</v>
       </c>
       <c r="AE2" t="n">
-        <v>211036.5015192957</v>
+        <v>258083.097394301</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.932251001756461e-06</v>
+        <v>5.878167397484811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.476080246913579</v>
       </c>
       <c r="AH2" t="n">
-        <v>190895.4740059445</v>
+        <v>233452.0088009663</v>
       </c>
     </row>
     <row r="3">
@@ -8576,28 +8576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.8631877912585</v>
+        <v>189.2478383769226</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.8906456175661</v>
+        <v>258.9372414925714</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.6680997902751</v>
+        <v>234.2246345852968</v>
       </c>
       <c r="AD3" t="n">
-        <v>154863.1877912585</v>
+        <v>189247.8383769226</v>
       </c>
       <c r="AE3" t="n">
-        <v>211890.6456175661</v>
+        <v>258937.2414925714</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.936181546751893e-06</v>
+        <v>5.886046805295622e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.464506172839506</v>
       </c>
       <c r="AH3" t="n">
-        <v>191668.099790275</v>
+        <v>234224.6345852968</v>
       </c>
     </row>
   </sheetData>
@@ -8873,28 +8873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.7464680360002</v>
+        <v>414.4613863012977</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.7480119933692</v>
+        <v>567.0843534833274</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.2934648838467</v>
+        <v>512.9626186947669</v>
       </c>
       <c r="AD2" t="n">
-        <v>355746.4680360002</v>
+        <v>414461.3863012977</v>
       </c>
       <c r="AE2" t="n">
-        <v>486748.0119933692</v>
+        <v>567084.3534833274</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.908734668612529e-06</v>
+        <v>3.380510930268692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.31558641975309</v>
       </c>
       <c r="AH2" t="n">
-        <v>440293.4648838467</v>
+        <v>512962.6186947668</v>
       </c>
     </row>
     <row r="3">
@@ -8979,28 +8979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.9741401104027</v>
+        <v>298.2312365962135</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.3398436317703</v>
+        <v>408.0531349445222</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.5221462746473</v>
+        <v>369.109116451588</v>
       </c>
       <c r="AD3" t="n">
-        <v>258974.1401104027</v>
+        <v>298231.2365962135</v>
       </c>
       <c r="AE3" t="n">
-        <v>354339.8436317703</v>
+        <v>408053.1349445222</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.376360388474962e-06</v>
+        <v>4.208710827962603e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.089506172839506</v>
       </c>
       <c r="AH3" t="n">
-        <v>320522.1462746473</v>
+        <v>369109.116451588</v>
       </c>
     </row>
     <row r="4">
@@ -9085,28 +9085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>227.0496819748373</v>
+        <v>266.2214376060794</v>
       </c>
       <c r="AB4" t="n">
-        <v>310.6593916028516</v>
+        <v>364.2559157935554</v>
       </c>
       <c r="AC4" t="n">
-        <v>281.010495281562</v>
+        <v>329.4918424266064</v>
       </c>
       <c r="AD4" t="n">
-        <v>227049.6819748374</v>
+        <v>266221.4376060794</v>
       </c>
       <c r="AE4" t="n">
-        <v>310659.3916028516</v>
+        <v>364255.9157935554</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.548879237962155e-06</v>
+        <v>4.514254529745296e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.472222222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>281010.495281562</v>
+        <v>329491.8424266064</v>
       </c>
     </row>
     <row r="5">
@@ -9191,28 +9191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>214.3325016655165</v>
+        <v>253.5042572967552</v>
       </c>
       <c r="AB5" t="n">
-        <v>293.2591844612487</v>
+        <v>346.8557086517753</v>
       </c>
       <c r="AC5" t="n">
-        <v>265.270939488204</v>
+        <v>313.7522866331979</v>
       </c>
       <c r="AD5" t="n">
-        <v>214332.5016655165</v>
+        <v>253504.2572967552</v>
       </c>
       <c r="AE5" t="n">
-        <v>293259.1844612486</v>
+        <v>346855.7086517753</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.637881499702791e-06</v>
+        <v>4.671884148770115e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.186728395061728</v>
       </c>
       <c r="AH5" t="n">
-        <v>265270.939488204</v>
+        <v>313752.2866331979</v>
       </c>
     </row>
     <row r="6">
@@ -9297,28 +9297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>204.4661167977449</v>
+        <v>243.6378724289836</v>
       </c>
       <c r="AB6" t="n">
-        <v>279.7595614109901</v>
+        <v>333.3560856015167</v>
       </c>
       <c r="AC6" t="n">
-        <v>253.0597015150178</v>
+        <v>301.5410486600118</v>
       </c>
       <c r="AD6" t="n">
-        <v>204466.1167977449</v>
+        <v>243637.8724289836</v>
       </c>
       <c r="AE6" t="n">
-        <v>279759.5614109901</v>
+        <v>333356.0856015167</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.690107355177012e-06</v>
+        <v>4.764380019556374e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.028549382716049</v>
       </c>
       <c r="AH6" t="n">
-        <v>253059.7015150178</v>
+        <v>301541.0486600118</v>
       </c>
     </row>
     <row r="7">
@@ -9403,28 +9403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>203.8793807337662</v>
+        <v>243.0511363650049</v>
       </c>
       <c r="AB7" t="n">
-        <v>278.9567632432865</v>
+        <v>332.5532874338131</v>
       </c>
       <c r="AC7" t="n">
-        <v>252.3335212777053</v>
+        <v>300.8148684226994</v>
       </c>
       <c r="AD7" t="n">
-        <v>203879.3807337662</v>
+        <v>243051.1363650049</v>
       </c>
       <c r="AE7" t="n">
-        <v>278956.7632432865</v>
+        <v>332553.2874338132</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.695649005436334e-06</v>
+        <v>4.774194693948486e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.013117283950617</v>
       </c>
       <c r="AH7" t="n">
-        <v>252333.5212777053</v>
+        <v>300814.8684226994</v>
       </c>
     </row>
   </sheetData>
@@ -9700,28 +9700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>410.7439081279105</v>
+        <v>470.6718069448438</v>
       </c>
       <c r="AB2" t="n">
-        <v>561.9979358429368</v>
+        <v>643.9939308365683</v>
       </c>
       <c r="AC2" t="n">
-        <v>508.3616416151432</v>
+        <v>582.5320539286843</v>
       </c>
       <c r="AD2" t="n">
-        <v>410743.9081279105</v>
+        <v>470671.8069448438</v>
       </c>
       <c r="AE2" t="n">
-        <v>561997.9358429369</v>
+        <v>643993.9308365684</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.757197788482958e-06</v>
+        <v>3.064399506001488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.0408950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>508361.6416151432</v>
+        <v>582532.0539286842</v>
       </c>
     </row>
     <row r="3">
@@ -9806,28 +9806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>282.3790153541442</v>
+        <v>332.2193816226802</v>
       </c>
       <c r="AB3" t="n">
-        <v>386.3634264904795</v>
+        <v>454.5572144208666</v>
       </c>
       <c r="AC3" t="n">
-        <v>349.4894433307022</v>
+        <v>411.1749118515955</v>
       </c>
       <c r="AD3" t="n">
-        <v>282379.0153541442</v>
+        <v>332219.3816226802</v>
       </c>
       <c r="AE3" t="n">
-        <v>386363.4264904795</v>
+        <v>454557.2144208666</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.253440667168117e-06</v>
+        <v>3.929803754895071e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.390432098765432</v>
       </c>
       <c r="AH3" t="n">
-        <v>349489.4433307021</v>
+        <v>411174.9118515956</v>
       </c>
     </row>
     <row r="4">
@@ -9912,28 +9912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>247.1146386914548</v>
+        <v>297.0402563060144</v>
       </c>
       <c r="AB4" t="n">
-        <v>338.1131505859296</v>
+        <v>406.4235831691296</v>
       </c>
       <c r="AC4" t="n">
-        <v>305.8441060388964</v>
+        <v>367.6350868105487</v>
       </c>
       <c r="AD4" t="n">
-        <v>247114.6386914548</v>
+        <v>297040.2563060144</v>
       </c>
       <c r="AE4" t="n">
-        <v>338113.1505859296</v>
+        <v>406423.5831691296</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.435034408472997e-06</v>
+        <v>4.246487383109775e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.688271604938272</v>
       </c>
       <c r="AH4" t="n">
-        <v>305844.1060388964</v>
+        <v>367635.0868105487</v>
       </c>
     </row>
     <row r="5">
@@ -10018,28 +10018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>233.3202065015736</v>
+        <v>273.2437219308584</v>
       </c>
       <c r="AB5" t="n">
-        <v>319.2389998963459</v>
+        <v>373.8641150080379</v>
       </c>
       <c r="AC5" t="n">
-        <v>288.7712778010838</v>
+        <v>338.1830485932509</v>
       </c>
       <c r="AD5" t="n">
-        <v>233320.2065015736</v>
+        <v>273243.7219308584</v>
       </c>
       <c r="AE5" t="n">
-        <v>319238.999896346</v>
+        <v>373864.1150080379</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.530794804824046e-06</v>
+        <v>4.413485152624385e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.36033950617284</v>
       </c>
       <c r="AH5" t="n">
-        <v>288771.2778010838</v>
+        <v>338183.0485932509</v>
       </c>
     </row>
     <row r="6">
@@ -10124,28 +10124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>221.2117091620804</v>
+        <v>261.1352245913651</v>
       </c>
       <c r="AB6" t="n">
-        <v>302.6716196472582</v>
+        <v>357.2967347589416</v>
       </c>
       <c r="AC6" t="n">
-        <v>273.7850650704996</v>
+        <v>323.1968358626642</v>
       </c>
       <c r="AD6" t="n">
-        <v>221211.7091620804</v>
+        <v>261135.2245913651</v>
       </c>
       <c r="AE6" t="n">
-        <v>302671.6196472583</v>
+        <v>357296.7347589416</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.611253282170545e-06</v>
+        <v>4.553797711546455e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.101851851851853</v>
       </c>
       <c r="AH6" t="n">
-        <v>273785.0650704995</v>
+        <v>323196.8358626642</v>
       </c>
     </row>
     <row r="7">
@@ -10230,28 +10230,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>215.2732408352707</v>
+        <v>255.1967562645521</v>
       </c>
       <c r="AB7" t="n">
-        <v>294.5463452957887</v>
+        <v>349.1714604072985</v>
       </c>
       <c r="AC7" t="n">
-        <v>266.4352554992374</v>
+        <v>315.8470262913528</v>
       </c>
       <c r="AD7" t="n">
-        <v>215273.2408352707</v>
+        <v>255196.7562645521</v>
       </c>
       <c r="AE7" t="n">
-        <v>294546.3452957887</v>
+        <v>349171.4604072985</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.62984593644489e-06</v>
+        <v>4.586221677105134e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.04783950617284</v>
       </c>
       <c r="AH7" t="n">
-        <v>266435.2554992374</v>
+        <v>315847.0262913528</v>
       </c>
     </row>
     <row r="8">
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>212.7326117742264</v>
+        <v>252.6561272035079</v>
       </c>
       <c r="AB8" t="n">
-        <v>291.0701445298261</v>
+        <v>345.695259641336</v>
       </c>
       <c r="AC8" t="n">
-        <v>263.2908184554988</v>
+        <v>312.702589247614</v>
       </c>
       <c r="AD8" t="n">
-        <v>212732.6117742264</v>
+        <v>252656.1272035078</v>
       </c>
       <c r="AE8" t="n">
-        <v>291070.1445298261</v>
+        <v>345695.2596413359</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.6447090907468e-06</v>
+        <v>4.612141720368856e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.001543209876543</v>
       </c>
       <c r="AH8" t="n">
-        <v>263290.8184554988</v>
+        <v>312702.589247614</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>529.9979672133294</v>
+        <v>602.359944480275</v>
       </c>
       <c r="AB2" t="n">
-        <v>725.1666006013827</v>
+        <v>824.1754502831473</v>
       </c>
       <c r="AC2" t="n">
-        <v>655.9577180177022</v>
+        <v>745.5173020456325</v>
       </c>
       <c r="AD2" t="n">
-        <v>529997.9672133294</v>
+        <v>602359.9444802749</v>
       </c>
       <c r="AE2" t="n">
-        <v>725166.6006013827</v>
+        <v>824175.4502831473</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.485923116866822e-06</v>
+        <v>2.525970817070289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.74614197530864</v>
       </c>
       <c r="AH2" t="n">
-        <v>655957.7180177022</v>
+        <v>745517.3020456325</v>
       </c>
     </row>
     <row r="3">
@@ -10739,28 +10739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>343.0353765082668</v>
+        <v>394.6372517814931</v>
       </c>
       <c r="AB3" t="n">
-        <v>469.3561357913437</v>
+        <v>539.9600980542405</v>
       </c>
       <c r="AC3" t="n">
-        <v>424.561444936891</v>
+        <v>488.4270641347003</v>
       </c>
       <c r="AD3" t="n">
-        <v>343035.3765082668</v>
+        <v>394637.2517814931</v>
       </c>
       <c r="AE3" t="n">
-        <v>469356.1357913436</v>
+        <v>539960.0980542405</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.028592890318024e-06</v>
+        <v>3.448473465749884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.06944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>424561.444936891</v>
+        <v>488427.0641347003</v>
       </c>
     </row>
     <row r="4">
@@ -10845,28 +10845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>297.327457350348</v>
+        <v>338.6772481542964</v>
       </c>
       <c r="AB4" t="n">
-        <v>406.8165443084026</v>
+        <v>463.3931523103879</v>
       </c>
       <c r="AC4" t="n">
-        <v>367.9905442902138</v>
+        <v>419.1675602302577</v>
       </c>
       <c r="AD4" t="n">
-        <v>297327.457350348</v>
+        <v>338677.2481542964</v>
       </c>
       <c r="AE4" t="n">
-        <v>406816.5443084026</v>
+        <v>463393.1523103879</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.234840225930733e-06</v>
+        <v>3.799080266964955e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.139660493827162</v>
       </c>
       <c r="AH4" t="n">
-        <v>367990.5442902138</v>
+        <v>419167.5602302577</v>
       </c>
     </row>
     <row r="5">
@@ -10951,28 +10951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>269.5613490312701</v>
+        <v>321.1631347959453</v>
       </c>
       <c r="AB5" t="n">
-        <v>368.8257299519942</v>
+        <v>439.4295697453427</v>
       </c>
       <c r="AC5" t="n">
-        <v>333.6255199355383</v>
+        <v>397.491028352121</v>
       </c>
       <c r="AD5" t="n">
-        <v>269561.3490312701</v>
+        <v>321163.1347959453</v>
       </c>
       <c r="AE5" t="n">
-        <v>368825.7299519942</v>
+        <v>439429.5697453427</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.346910454239795e-06</v>
+        <v>3.989592227481461e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.703703703703702</v>
       </c>
       <c r="AH5" t="n">
-        <v>333625.5199355383</v>
+        <v>397491.028352121</v>
       </c>
     </row>
     <row r="6">
@@ -11057,28 +11057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>259.1907289986839</v>
+        <v>300.4551789480608</v>
       </c>
       <c r="AB6" t="n">
-        <v>354.636190103944</v>
+        <v>411.0960309837317</v>
       </c>
       <c r="AC6" t="n">
-        <v>320.7902098554418</v>
+        <v>371.8616027635468</v>
       </c>
       <c r="AD6" t="n">
-        <v>259190.7289986839</v>
+        <v>300455.1789480608</v>
       </c>
       <c r="AE6" t="n">
-        <v>354636.190103944</v>
+        <v>411096.0309837317</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.410701018770934e-06</v>
+        <v>4.09803195937678e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.472222222222221</v>
       </c>
       <c r="AH6" t="n">
-        <v>320790.2098554418</v>
+        <v>371861.6027635468</v>
       </c>
     </row>
     <row r="7">
@@ -11163,28 +11163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>248.6086410871202</v>
+        <v>289.8730910365002</v>
       </c>
       <c r="AB7" t="n">
-        <v>340.157310574412</v>
+        <v>396.6171514543644</v>
       </c>
       <c r="AC7" t="n">
-        <v>307.6931742670753</v>
+        <v>358.7645671752272</v>
       </c>
       <c r="AD7" t="n">
-        <v>248608.6410871202</v>
+        <v>289873.0910365002</v>
       </c>
       <c r="AE7" t="n">
-        <v>340157.310574412</v>
+        <v>396617.1514543644</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.474544521529899e-06</v>
+        <v>4.20656168275085e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.252314814814817</v>
       </c>
       <c r="AH7" t="n">
-        <v>307693.1742670753</v>
+        <v>358764.5671752272</v>
       </c>
     </row>
     <row r="8">
@@ -11269,28 +11269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>244.2390754479131</v>
+        <v>285.5035253972931</v>
       </c>
       <c r="AB8" t="n">
-        <v>334.1786780952211</v>
+        <v>390.6385189751703</v>
       </c>
       <c r="AC8" t="n">
-        <v>302.285134080633</v>
+        <v>353.3565269887841</v>
       </c>
       <c r="AD8" t="n">
-        <v>244239.0754479131</v>
+        <v>285503.525397293</v>
       </c>
       <c r="AE8" t="n">
-        <v>334178.6780952211</v>
+        <v>390638.5189751703</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.491431816206606e-06</v>
+        <v>4.235268964472515e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.198302469135804</v>
       </c>
       <c r="AH8" t="n">
-        <v>302285.1340806331</v>
+        <v>353356.5269887841</v>
       </c>
     </row>
     <row r="9">
@@ -11375,28 +11375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>238.2219959216201</v>
+        <v>279.4864458709999</v>
       </c>
       <c r="AB9" t="n">
-        <v>325.9458444325372</v>
+        <v>382.4056853124823</v>
       </c>
       <c r="AC9" t="n">
-        <v>294.8380305078585</v>
+        <v>345.9094234160083</v>
       </c>
       <c r="AD9" t="n">
-        <v>238221.9959216201</v>
+        <v>279486.4458709999</v>
       </c>
       <c r="AE9" t="n">
-        <v>325945.8444325372</v>
+        <v>382405.6853124822</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.515148142272955e-06</v>
+        <v>4.275585146953099e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.121141975308642</v>
       </c>
       <c r="AH9" t="n">
-        <v>294838.0305078585</v>
+        <v>345909.4234160083</v>
       </c>
     </row>
     <row r="10">
@@ -11481,28 +11481,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>232.0886032861794</v>
+        <v>273.3530532355591</v>
       </c>
       <c r="AB10" t="n">
-        <v>317.5538660425454</v>
+        <v>374.0137069224861</v>
       </c>
       <c r="AC10" t="n">
-        <v>287.2469707571892</v>
+        <v>338.3183636653378</v>
       </c>
       <c r="AD10" t="n">
-        <v>232088.6032861794</v>
+        <v>273353.0532355591</v>
       </c>
       <c r="AE10" t="n">
-        <v>317553.8660425454</v>
+        <v>374013.7069224861</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.53955266530105e-06</v>
+        <v>4.317071218657448e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.043981481481483</v>
       </c>
       <c r="AH10" t="n">
-        <v>287246.9707571892</v>
+        <v>338318.3636653378</v>
       </c>
     </row>
     <row r="11">
@@ -11587,28 +11587,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>230.232892736513</v>
+        <v>271.4973426858927</v>
       </c>
       <c r="AB11" t="n">
-        <v>315.0148010003217</v>
+        <v>371.474641880261</v>
       </c>
       <c r="AC11" t="n">
-        <v>284.9502305189943</v>
+        <v>336.0216234271425</v>
       </c>
       <c r="AD11" t="n">
-        <v>230232.892736513</v>
+        <v>271497.3426858927</v>
       </c>
       <c r="AE11" t="n">
-        <v>315014.8010003216</v>
+        <v>371474.641880261</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.545640561501117e-06</v>
+        <v>4.327420238713848e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.024691358024691</v>
       </c>
       <c r="AH11" t="n">
-        <v>284950.2305189943</v>
+        <v>336021.6234271424</v>
       </c>
     </row>
   </sheetData>
@@ -11884,28 +11884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>304.1426216076781</v>
+        <v>361.7061589200305</v>
       </c>
       <c r="AB2" t="n">
-        <v>416.141352709109</v>
+        <v>494.902323983905</v>
       </c>
       <c r="AC2" t="n">
-        <v>376.4254060646076</v>
+        <v>447.6695407826546</v>
       </c>
       <c r="AD2" t="n">
-        <v>304142.6216076781</v>
+        <v>361706.1589200305</v>
       </c>
       <c r="AE2" t="n">
-        <v>416141.352709109</v>
+        <v>494902.323983905</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.081402304447758e-06</v>
+        <v>3.753260897840884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.61728395061728</v>
       </c>
       <c r="AH2" t="n">
-        <v>376425.4060646076</v>
+        <v>447669.5407826546</v>
       </c>
     </row>
     <row r="3">
@@ -11990,28 +11990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.9820568798199</v>
+        <v>272.9374478310209</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.8303757306687</v>
+        <v>373.4450572727805</v>
       </c>
       <c r="AC3" t="n">
-        <v>278.4514767136706</v>
+        <v>337.8039851400953</v>
       </c>
       <c r="AD3" t="n">
-        <v>224982.0568798199</v>
+        <v>272937.4478310209</v>
       </c>
       <c r="AE3" t="n">
-        <v>307830.3757306687</v>
+        <v>373445.0572727805</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.519869575802683e-06</v>
+        <v>4.54392114696368e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.769290123456791</v>
       </c>
       <c r="AH3" t="n">
-        <v>278451.4767136705</v>
+        <v>337803.9851400953</v>
       </c>
     </row>
     <row r="4">
@@ -12096,28 +12096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>206.1575054601138</v>
+        <v>244.5048395587087</v>
       </c>
       <c r="AB4" t="n">
-        <v>282.0737939976435</v>
+        <v>334.5423082762963</v>
       </c>
       <c r="AC4" t="n">
-        <v>255.1530669916476</v>
+        <v>302.6140599075848</v>
       </c>
       <c r="AD4" t="n">
-        <v>206157.5054601138</v>
+        <v>244504.8395587087</v>
       </c>
       <c r="AE4" t="n">
-        <v>282073.7939976435</v>
+        <v>334542.3082762963</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.676964106278984e-06</v>
+        <v>4.827199760253105e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.252314814814817</v>
       </c>
       <c r="AH4" t="n">
-        <v>255153.0669916476</v>
+        <v>302614.0599075847</v>
       </c>
     </row>
     <row r="5">
@@ -12202,28 +12202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>183.152466304719</v>
+        <v>231.0225164013451</v>
       </c>
       <c r="AB5" t="n">
-        <v>250.5972845145494</v>
+        <v>316.0951989342817</v>
       </c>
       <c r="AC5" t="n">
-        <v>226.6806313960515</v>
+        <v>285.9275167904857</v>
       </c>
       <c r="AD5" t="n">
-        <v>183152.466304719</v>
+        <v>231022.5164013451</v>
       </c>
       <c r="AE5" t="n">
-        <v>250597.2845145494</v>
+        <v>316095.1989342817</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.769514146836659e-06</v>
+        <v>4.994089384414866e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.978395061728396</v>
       </c>
       <c r="AH5" t="n">
-        <v>226680.6313960515</v>
+        <v>285927.5167904857</v>
       </c>
     </row>
     <row r="6">
@@ -12308,28 +12308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>194.7625580737243</v>
+        <v>233.1098921723191</v>
       </c>
       <c r="AB6" t="n">
-        <v>266.482724273994</v>
+        <v>318.9512385526468</v>
       </c>
       <c r="AC6" t="n">
-        <v>241.0499870802144</v>
+        <v>288.5109799961517</v>
       </c>
       <c r="AD6" t="n">
-        <v>194762.5580737243</v>
+        <v>233109.8921723191</v>
       </c>
       <c r="AE6" t="n">
-        <v>266482.724273994</v>
+        <v>318951.2385526468</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.746319365632538e-06</v>
+        <v>4.952263705092148e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.043981481481483</v>
       </c>
       <c r="AH6" t="n">
-        <v>241049.9870802144</v>
+        <v>288510.9799961516</v>
       </c>
     </row>
   </sheetData>
@@ -12605,28 +12605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.3824509135432</v>
+        <v>283.6410534109273</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.797141914375</v>
+        <v>388.0902026369596</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.7989585458153</v>
+        <v>351.0514183853078</v>
       </c>
       <c r="AD2" t="n">
-        <v>237382.4509135431</v>
+        <v>283641.0534109273</v>
       </c>
       <c r="AE2" t="n">
-        <v>324797.141914375</v>
+        <v>388090.2026369596</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.386298591528288e-06</v>
+        <v>4.452070408776567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.645061728395062</v>
       </c>
       <c r="AH2" t="n">
-        <v>293798.9585458153</v>
+        <v>351051.4183853078</v>
       </c>
     </row>
     <row r="3">
@@ -12711,28 +12711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.6404296132954</v>
+        <v>225.5620602651793</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.1061580251936</v>
+        <v>308.6239619504605</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.4728685576123</v>
+        <v>279.1693241784509</v>
       </c>
       <c r="AD3" t="n">
-        <v>188640.4296132954</v>
+        <v>225562.0602651793</v>
       </c>
       <c r="AE3" t="n">
-        <v>258106.1580251936</v>
+        <v>308623.9619504604</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.762319592088358e-06</v>
+        <v>5.153605403439534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>233472.8685576123</v>
+        <v>279169.324178451</v>
       </c>
     </row>
     <row r="4">
@@ -12817,28 +12817,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>178.6256359462841</v>
+        <v>215.5472665981679</v>
       </c>
       <c r="AB4" t="n">
-        <v>244.4034755084812</v>
+        <v>294.9212794337481</v>
       </c>
       <c r="AC4" t="n">
-        <v>221.0779508284549</v>
+        <v>266.7744064492936</v>
       </c>
       <c r="AD4" t="n">
-        <v>178625.6359462841</v>
+        <v>215547.2665981679</v>
       </c>
       <c r="AE4" t="n">
-        <v>244403.4755084812</v>
+        <v>294921.2794337481</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.845362783073542e-06</v>
+        <v>5.308537453664958e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>221077.9508284549</v>
+        <v>266774.4064492935</v>
       </c>
     </row>
   </sheetData>
@@ -23039,28 +23039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.5335878963815</v>
+        <v>236.4009679909029</v>
       </c>
       <c r="AB2" t="n">
-        <v>274.3789018772167</v>
+        <v>323.4542336796488</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.1925645753429</v>
+        <v>292.5842155882274</v>
       </c>
       <c r="AD2" t="n">
-        <v>200533.5878963815</v>
+        <v>236400.9679909029</v>
       </c>
       <c r="AE2" t="n">
-        <v>274378.9018772167</v>
+        <v>323454.2336796488</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.636375115254907e-06</v>
+        <v>5.06984711293586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.031635802469136</v>
       </c>
       <c r="AH2" t="n">
-        <v>248192.5645753429</v>
+        <v>292584.2155882274</v>
       </c>
     </row>
     <row r="3">
@@ -23145,28 +23145,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.2349743177683</v>
+        <v>203.017013557718</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.8182697478288</v>
+        <v>277.7768344280632</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.9801752316206</v>
+        <v>251.2662032125662</v>
       </c>
       <c r="AD3" t="n">
-        <v>167234.9743177683</v>
+        <v>203017.013557718</v>
       </c>
       <c r="AE3" t="n">
-        <v>228818.2697478288</v>
+        <v>277776.8344280632</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.902913133110384e-06</v>
+        <v>5.582409605463246e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.202160493827162</v>
       </c>
       <c r="AH3" t="n">
-        <v>206980.1752316206</v>
+        <v>251266.2032125661</v>
       </c>
     </row>
   </sheetData>
@@ -23442,28 +23442,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.4373530383004</v>
+        <v>188.3623459342413</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.36204678698</v>
+        <v>257.725671667326</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.2397742515863</v>
+        <v>233.1286952837235</v>
       </c>
       <c r="AD2" t="n">
-        <v>146437.3530383004</v>
+        <v>188362.3459342413</v>
       </c>
       <c r="AE2" t="n">
-        <v>200362.04678698</v>
+        <v>257725.671667326</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.914748976279003e-06</v>
+        <v>6.011959260415819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.765432098765432</v>
       </c>
       <c r="AH2" t="n">
-        <v>181239.7742515863</v>
+        <v>233128.6952837236</v>
       </c>
     </row>
   </sheetData>
@@ -23739,28 +23739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.9349329322999</v>
+        <v>437.3962887534244</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.1072485504715</v>
+        <v>598.4648988348129</v>
       </c>
       <c r="AC2" t="n">
-        <v>467.7552585133953</v>
+        <v>541.3482488407785</v>
       </c>
       <c r="AD2" t="n">
-        <v>377934.9329323</v>
+        <v>437396.2887534244</v>
       </c>
       <c r="AE2" t="n">
-        <v>517107.2485504715</v>
+        <v>598464.8988348128</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.830465140082464e-06</v>
+        <v>3.216055043346567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.67438271604938</v>
       </c>
       <c r="AH2" t="n">
-        <v>467755.2585133953</v>
+        <v>541348.2488407785</v>
       </c>
     </row>
     <row r="3">
@@ -23845,28 +23845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>270.6146788234294</v>
+        <v>310.25567221273</v>
       </c>
       <c r="AB3" t="n">
-        <v>370.2669422432573</v>
+        <v>424.5054982357</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.9291849484773</v>
+        <v>383.9912892812927</v>
       </c>
       <c r="AD3" t="n">
-        <v>270614.6788234294</v>
+        <v>310255.67221273</v>
       </c>
       <c r="AE3" t="n">
-        <v>370266.9422432573</v>
+        <v>424505.4982357</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.313271439400327e-06</v>
+        <v>4.064326665613435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.23996913580247</v>
       </c>
       <c r="AH3" t="n">
-        <v>334929.1849484773</v>
+        <v>383991.2892812927</v>
       </c>
     </row>
     <row r="4">
@@ -23951,28 +23951,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>237.3374820169088</v>
+        <v>286.8032710132771</v>
       </c>
       <c r="AB4" t="n">
-        <v>324.7356134861124</v>
+        <v>392.4168882676893</v>
       </c>
       <c r="AC4" t="n">
-        <v>293.7433023043902</v>
+        <v>354.965171211982</v>
       </c>
       <c r="AD4" t="n">
-        <v>237337.4820169088</v>
+        <v>286803.2710132771</v>
       </c>
       <c r="AE4" t="n">
-        <v>324735.6134861123</v>
+        <v>392416.8882676893</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.488479829113773e-06</v>
+        <v>4.372160894758698e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.587962962962964</v>
       </c>
       <c r="AH4" t="n">
-        <v>293743.3023043902</v>
+        <v>354965.171211982</v>
       </c>
     </row>
     <row r="5">
@@ -24057,28 +24057,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>223.9881457187198</v>
+        <v>263.5437982534515</v>
       </c>
       <c r="AB5" t="n">
-        <v>306.4704626317865</v>
+        <v>360.5922515021788</v>
       </c>
       <c r="AC5" t="n">
-        <v>277.2213518122953</v>
+        <v>326.1778331132136</v>
       </c>
       <c r="AD5" t="n">
-        <v>223988.1457187198</v>
+        <v>263543.7982534515</v>
       </c>
       <c r="AE5" t="n">
-        <v>306470.4626317865</v>
+        <v>360592.2515021788</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.583091251696943e-06</v>
+        <v>4.538389432027148e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.271604938271606</v>
       </c>
       <c r="AH5" t="n">
-        <v>277221.3518122953</v>
+        <v>326177.8331132137</v>
       </c>
     </row>
     <row r="6">
@@ -24163,28 +24163,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>214.9081521938482</v>
+        <v>254.4638047285766</v>
       </c>
       <c r="AB6" t="n">
-        <v>294.0468149100206</v>
+        <v>348.1686037802377</v>
       </c>
       <c r="AC6" t="n">
-        <v>265.9833995923916</v>
+        <v>314.9398808932602</v>
       </c>
       <c r="AD6" t="n">
-        <v>214908.1521938482</v>
+        <v>254463.8047285766</v>
       </c>
       <c r="AE6" t="n">
-        <v>294046.8149100206</v>
+        <v>348168.6037802377</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.634385266516624e-06</v>
+        <v>4.628510992630535e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.113425925925927</v>
       </c>
       <c r="AH6" t="n">
-        <v>265983.3995923916</v>
+        <v>314939.8808932602</v>
       </c>
     </row>
     <row r="7">
@@ -24269,28 +24269,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>208.289677221825</v>
+        <v>247.8453297565535</v>
       </c>
       <c r="AB7" t="n">
-        <v>284.9911254667947</v>
+        <v>339.1129143370118</v>
       </c>
       <c r="AC7" t="n">
-        <v>257.7919724398844</v>
+        <v>306.748453740753</v>
       </c>
       <c r="AD7" t="n">
-        <v>208289.677221825</v>
+        <v>247845.3297565535</v>
       </c>
       <c r="AE7" t="n">
-        <v>284991.1254667947</v>
+        <v>339112.9143370118</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.663023501572537e-06</v>
+        <v>4.6788272419091e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.024691358024691</v>
       </c>
       <c r="AH7" t="n">
-        <v>257791.9724398844</v>
+        <v>306748.4537407529</v>
       </c>
     </row>
     <row r="8">
@@ -24375,28 +24375,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>208.330060615238</v>
+        <v>247.8857131499664</v>
       </c>
       <c r="AB8" t="n">
-        <v>285.046379807252</v>
+        <v>339.168168677469</v>
       </c>
       <c r="AC8" t="n">
-        <v>257.8419533836383</v>
+        <v>306.7984346845069</v>
       </c>
       <c r="AD8" t="n">
-        <v>208330.060615238</v>
+        <v>247885.7131499664</v>
       </c>
       <c r="AE8" t="n">
-        <v>285046.379807252</v>
+        <v>339168.168677469</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.670778536210502e-06</v>
+        <v>4.692452531849138e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.001543209876543</v>
       </c>
       <c r="AH8" t="n">
-        <v>257841.9533836383</v>
+        <v>306798.4346845069</v>
       </c>
     </row>
   </sheetData>
@@ -24672,28 +24672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>500.3243311258105</v>
+        <v>571.9590863321273</v>
       </c>
       <c r="AB2" t="n">
-        <v>684.5658225980075</v>
+        <v>782.5796549736467</v>
       </c>
       <c r="AC2" t="n">
-        <v>619.2318212834194</v>
+        <v>707.8913510604052</v>
       </c>
       <c r="AD2" t="n">
-        <v>500324.3311258105</v>
+        <v>571959.0863321273</v>
       </c>
       <c r="AE2" t="n">
-        <v>684565.8225980075</v>
+        <v>782579.6549736467</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.549205896168159e-06</v>
+        <v>2.648969435231327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.29475308641975</v>
       </c>
       <c r="AH2" t="n">
-        <v>619231.8212834194</v>
+        <v>707891.3510604053</v>
       </c>
     </row>
     <row r="3">
@@ -24778,28 +24778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>320.4745900387875</v>
+        <v>381.8513489641376</v>
       </c>
       <c r="AB3" t="n">
-        <v>438.4874724321485</v>
+        <v>522.4658617453128</v>
       </c>
       <c r="AC3" t="n">
-        <v>396.6388434842563</v>
+        <v>472.6024531857818</v>
       </c>
       <c r="AD3" t="n">
-        <v>320474.5900387875</v>
+        <v>381851.3489641376</v>
       </c>
       <c r="AE3" t="n">
-        <v>438487.4724321485</v>
+        <v>522465.8617453128</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.077386730078642e-06</v>
+        <v>3.552099799480853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.911265432098766</v>
       </c>
       <c r="AH3" t="n">
-        <v>396638.8434842563</v>
+        <v>472602.4531857818</v>
       </c>
     </row>
     <row r="4">
@@ -24884,28 +24884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>287.6228855795661</v>
+        <v>328.6546021777794</v>
       </c>
       <c r="AB4" t="n">
-        <v>393.5383210761287</v>
+        <v>449.6797259173835</v>
       </c>
       <c r="AC4" t="n">
-        <v>355.9795760471248</v>
+        <v>406.7629240052868</v>
       </c>
       <c r="AD4" t="n">
-        <v>287622.8855795661</v>
+        <v>328654.6021777794</v>
       </c>
       <c r="AE4" t="n">
-        <v>393538.3210761287</v>
+        <v>449679.7259173834</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.279104301715602e-06</v>
+        <v>3.897014367090651e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.035493827160495</v>
       </c>
       <c r="AH4" t="n">
-        <v>355979.5760471248</v>
+        <v>406762.9240052868</v>
       </c>
     </row>
     <row r="5">
@@ -24990,28 +24990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>261.1379618110022</v>
+        <v>312.3421548185084</v>
       </c>
       <c r="AB5" t="n">
-        <v>357.3004799436067</v>
+        <v>427.3603157860421</v>
       </c>
       <c r="AC5" t="n">
-        <v>323.2002236121613</v>
+        <v>386.5736470513918</v>
       </c>
       <c r="AD5" t="n">
-        <v>261137.9618110022</v>
+        <v>312342.1548185084</v>
       </c>
       <c r="AE5" t="n">
-        <v>357300.4799436067</v>
+        <v>427360.3157860421</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.38516749696372e-06</v>
+        <v>4.078370611028378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.63425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>323200.2236121613</v>
+        <v>386573.6470513918</v>
       </c>
     </row>
     <row r="6">
@@ -25096,28 +25096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>250.1487156188269</v>
+        <v>291.0950913624717</v>
       </c>
       <c r="AB6" t="n">
-        <v>342.2645084919852</v>
+        <v>398.2891462112082</v>
       </c>
       <c r="AC6" t="n">
-        <v>309.5992641728669</v>
+        <v>360.2769890991373</v>
       </c>
       <c r="AD6" t="n">
-        <v>250148.7156188269</v>
+        <v>291095.0913624717</v>
       </c>
       <c r="AE6" t="n">
-        <v>342264.5084919852</v>
+        <v>398289.1462112081</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.456641386464087e-06</v>
+        <v>4.200582996852543e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.383487654320987</v>
       </c>
       <c r="AH6" t="n">
-        <v>309599.2641728669</v>
+        <v>360276.9890991373</v>
       </c>
     </row>
     <row r="7">
@@ -25202,28 +25202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>242.4080390945744</v>
+        <v>283.3544148382191</v>
       </c>
       <c r="AB7" t="n">
-        <v>331.6733733769614</v>
+        <v>387.6980110961789</v>
       </c>
       <c r="AC7" t="n">
-        <v>300.0189321284661</v>
+        <v>350.696657054735</v>
       </c>
       <c r="AD7" t="n">
-        <v>242408.0390945744</v>
+        <v>283354.4148382191</v>
       </c>
       <c r="AE7" t="n">
-        <v>331673.3733769614</v>
+        <v>387698.0110961789</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.498757068925469e-06</v>
+        <v>4.272596120388963e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.24074074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>300018.9321284661</v>
+        <v>350696.657054735</v>
       </c>
     </row>
     <row r="8">
@@ -25308,28 +25308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>235.6498697792704</v>
+        <v>276.5962455229149</v>
       </c>
       <c r="AB8" t="n">
-        <v>322.4265479703793</v>
+        <v>378.4511856895919</v>
       </c>
       <c r="AC8" t="n">
-        <v>291.6546107606842</v>
+        <v>342.3323356869516</v>
       </c>
       <c r="AD8" t="n">
-        <v>235649.8697792704</v>
+        <v>276596.2455229149</v>
       </c>
       <c r="AE8" t="n">
-        <v>322426.5479703792</v>
+        <v>378451.1856895919</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.528435547313971e-06</v>
+        <v>4.323343010992575e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.144290123456791</v>
       </c>
       <c r="AH8" t="n">
-        <v>291654.6107606842</v>
+        <v>342332.3356869516</v>
       </c>
     </row>
     <row r="9">
@@ -25414,28 +25414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>228.7100498232155</v>
+        <v>269.65642556686</v>
       </c>
       <c r="AB9" t="n">
-        <v>312.9311801432612</v>
+        <v>368.955817862469</v>
       </c>
       <c r="AC9" t="n">
-        <v>283.0654675121509</v>
+        <v>333.7431924384169</v>
       </c>
       <c r="AD9" t="n">
-        <v>228710.0498232156</v>
+        <v>269656.42556686</v>
       </c>
       <c r="AE9" t="n">
-        <v>312931.1801432612</v>
+        <v>368955.817862469</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.553576848250994e-06</v>
+        <v>4.366331833788081e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.063271604938272</v>
       </c>
       <c r="AH9" t="n">
-        <v>283065.4675121509</v>
+        <v>333743.1924384169</v>
       </c>
     </row>
     <row r="10">
@@ -25520,28 +25520,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>226.1313286710135</v>
+        <v>267.0777044146579</v>
       </c>
       <c r="AB10" t="n">
-        <v>309.402860097672</v>
+        <v>365.427497816878</v>
       </c>
       <c r="AC10" t="n">
-        <v>279.8738853796833</v>
+        <v>330.5516103059488</v>
       </c>
       <c r="AD10" t="n">
-        <v>226131.3286710135</v>
+        <v>267077.7044146579</v>
       </c>
       <c r="AE10" t="n">
-        <v>309402.860097672</v>
+        <v>365427.497816878</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.567401894838443e-06</v>
+        <v>4.38997112275631e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>279873.8853796833</v>
+        <v>330551.6103059488</v>
       </c>
     </row>
   </sheetData>
@@ -25817,28 +25817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.4590749713035</v>
+        <v>185.978125104447</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.0235235771332</v>
+        <v>254.4634755436036</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.0289978182578</v>
+        <v>230.1778385795271</v>
       </c>
       <c r="AD2" t="n">
-        <v>145459.0749713035</v>
+        <v>185978.125104447</v>
       </c>
       <c r="AE2" t="n">
-        <v>199023.5235771332</v>
+        <v>254463.4755436036</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.802244416116404e-06</v>
+        <v>6.006500470786082e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>180028.9978182578</v>
+        <v>230177.8385795271</v>
       </c>
     </row>
   </sheetData>
@@ -26114,28 +26114,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.4733741000384</v>
+        <v>311.5721562413748</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.5499411333284</v>
+        <v>426.306769762868</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.1893853480915</v>
+        <v>385.6206499820084</v>
       </c>
       <c r="AD2" t="n">
-        <v>255473.3741000384</v>
+        <v>311572.1562413748</v>
       </c>
       <c r="AE2" t="n">
-        <v>349549.9411333284</v>
+        <v>426306.7697628681</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.280324166432549e-06</v>
+        <v>4.201343434819297e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.945987654320989</v>
       </c>
       <c r="AH2" t="n">
-        <v>316189.3853480915</v>
+        <v>385620.6499820084</v>
       </c>
     </row>
     <row r="3">
@@ -26220,28 +26220,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.9882571015634</v>
+        <v>238.4159816558599</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.0010003423358</v>
+        <v>326.2112642721705</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.755290836072</v>
+        <v>295.0781190505164</v>
       </c>
       <c r="AD3" t="n">
-        <v>200988.2571015634</v>
+        <v>238415.9816558599</v>
       </c>
       <c r="AE3" t="n">
-        <v>275001.0003423358</v>
+        <v>326211.2642721705</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.675966787796622e-06</v>
+        <v>4.93028827269431e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.476080246913579</v>
       </c>
       <c r="AH3" t="n">
-        <v>248755.290836072</v>
+        <v>295078.1190505163</v>
       </c>
     </row>
     <row r="4">
@@ -26326,28 +26326,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.456007352506</v>
+        <v>221.8837319068024</v>
       </c>
       <c r="AB4" t="n">
-        <v>252.3808468843029</v>
+        <v>303.5911108141376</v>
       </c>
       <c r="AC4" t="n">
-        <v>228.2939730764818</v>
+        <v>274.6168012909262</v>
       </c>
       <c r="AD4" t="n">
-        <v>184456.007352506</v>
+        <v>221883.7319068025</v>
       </c>
       <c r="AE4" t="n">
-        <v>252380.8468843029</v>
+        <v>303591.1108141376</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.812883825709984e-06</v>
+        <v>5.182548677955961e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.063271604938272</v>
       </c>
       <c r="AH4" t="n">
-        <v>228293.9730764818</v>
+        <v>274616.8012909262</v>
       </c>
     </row>
     <row r="5">
@@ -26432,28 +26432,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.2680483805816</v>
+        <v>221.6957729348781</v>
       </c>
       <c r="AB5" t="n">
-        <v>252.1236731267515</v>
+        <v>303.3339370565861</v>
       </c>
       <c r="AC5" t="n">
-        <v>228.0613436214054</v>
+        <v>274.3841718358498</v>
       </c>
       <c r="AD5" t="n">
-        <v>184268.0483805816</v>
+        <v>221695.7729348781</v>
       </c>
       <c r="AE5" t="n">
-        <v>252123.6731267515</v>
+        <v>303333.9370565861</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.815823221113878e-06</v>
+        <v>5.187964315681629e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>228061.3436214054</v>
+        <v>274384.1718358498</v>
       </c>
     </row>
   </sheetData>
@@ -26729,28 +26729,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.0457680724896</v>
+        <v>382.2430126633323</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.3737157671154</v>
+        <v>523.0017532975338</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.0587506132195</v>
+        <v>473.0872000003874</v>
       </c>
       <c r="AD2" t="n">
-        <v>324045.7680724896</v>
+        <v>382243.0126633323</v>
       </c>
       <c r="AE2" t="n">
-        <v>443373.7157671154</v>
+        <v>523001.7532975338</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.995098850259078e-06</v>
+        <v>3.564098497104175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.94521604938272</v>
       </c>
       <c r="AH2" t="n">
-        <v>401058.7506132195</v>
+        <v>473087.2000003874</v>
       </c>
     </row>
     <row r="3">
@@ -26835,28 +26835,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.3343062660516</v>
+        <v>285.8177866159949</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.7312682836853</v>
+        <v>391.0685050388245</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.7393718019843</v>
+        <v>353.7454757860124</v>
       </c>
       <c r="AD3" t="n">
-        <v>237334.3062660516</v>
+        <v>285817.7866159949</v>
       </c>
       <c r="AE3" t="n">
-        <v>324731.2682836853</v>
+        <v>391068.5050388245</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.443372074862667e-06</v>
+        <v>4.364905898649328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.935185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>293739.3718019843</v>
+        <v>353745.4757860124</v>
       </c>
     </row>
     <row r="4">
@@ -26941,28 +26941,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.4948947917119</v>
+        <v>255.2647004093003</v>
       </c>
       <c r="AB4" t="n">
-        <v>296.2178661345596</v>
+        <v>349.2644245836271</v>
       </c>
       <c r="AC4" t="n">
-        <v>267.9472487351508</v>
+        <v>315.9311180971686</v>
       </c>
       <c r="AD4" t="n">
-        <v>216494.8947917119</v>
+        <v>255264.7004093003</v>
       </c>
       <c r="AE4" t="n">
-        <v>296217.8661345596</v>
+        <v>349264.4245836271</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.610908532542796e-06</v>
+        <v>4.664197553772263e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.364197530864198</v>
       </c>
       <c r="AH4" t="n">
-        <v>267947.2487351508</v>
+        <v>315931.1180971686</v>
       </c>
     </row>
     <row r="5">
@@ -27047,28 +27047,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>204.2836223111675</v>
+        <v>243.0534279287559</v>
       </c>
       <c r="AB5" t="n">
-        <v>279.5098644033665</v>
+        <v>332.556422852434</v>
       </c>
       <c r="AC5" t="n">
-        <v>252.8338352393498</v>
+        <v>300.8177046013676</v>
       </c>
       <c r="AD5" t="n">
-        <v>204283.6223111675</v>
+        <v>243053.4279287559</v>
       </c>
       <c r="AE5" t="n">
-        <v>279509.8644033665</v>
+        <v>332556.422852434</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.696714366949241e-06</v>
+        <v>4.817483414977118e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.097993827160494</v>
       </c>
       <c r="AH5" t="n">
-        <v>252833.8352393498</v>
+        <v>300817.7046013676</v>
       </c>
     </row>
     <row r="6">
@@ -27153,28 +27153,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>199.0332483341406</v>
+        <v>237.803053951729</v>
       </c>
       <c r="AB6" t="n">
-        <v>272.3260710978496</v>
+        <v>325.372629546917</v>
       </c>
       <c r="AC6" t="n">
-        <v>246.3356530843919</v>
+        <v>294.3195224464097</v>
       </c>
       <c r="AD6" t="n">
-        <v>199033.2483341406</v>
+        <v>237803.053951729</v>
       </c>
       <c r="AE6" t="n">
-        <v>272326.0710978496</v>
+        <v>325372.629546917</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.721222233900422e-06</v>
+        <v>4.861264930743413e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.024691358024691</v>
       </c>
       <c r="AH6" t="n">
-        <v>246335.6530843919</v>
+        <v>294319.5224464097</v>
       </c>
     </row>
   </sheetData>
